--- a/Experiment_Results/20200218 - DOE section 4.1.2/BAP_Dimention_summary_4.1.2.xlsx
+++ b/Experiment_Results/20200218 - DOE section 4.1.2/BAP_Dimention_summary_4.1.2.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10627690_polimi_it/Documents/01_Research/01_DEO_BD/BAP_Int_MZ_EP/Experiment_Results/20200218 - DOE section 4.1.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_AD4DA82427541F7ACA7EB82008CE2C946AE8DE1F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C550D8CD-4300-4968-9497-3F65AEC6D916}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_AD4DA82427541F7ACA7EB82008CE2C946AE8DE1F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{789CDEF3-21DC-4772-8E55-050A381E661C}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="45675" yWindow="675" windowWidth="14385" windowHeight="7500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="69">
   <si>
     <t>nbStage</t>
   </si>
@@ -191,6 +192,63 @@
   <si>
     <t>1,1,1,4,6,3,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>1,1,1,4,12</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,6,12</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,4,14</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,2,2,4,13</t>
+  </si>
+  <si>
+    <t>1,1,6</t>
+  </si>
+  <si>
+    <t>1,1,1,2,6</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,2,7</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,2,7</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,2,3,6</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,2,3,6</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,2,7</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,2,8</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,2,8</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,1,1,2,1,1,1,1,1,1,2,8</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,2,1,1,2,8</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,3,7</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,3,7</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,3,7</t>
   </si>
 </sst>
 </file>
@@ -516,10 +574,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -652,7 +710,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -684,7 +742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>
@@ -716,7 +774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>8</v>
       </c>
@@ -844,7 +902,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>4</v>
       </c>
@@ -876,7 +934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>6</v>
       </c>
@@ -908,7 +966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>8</v>
       </c>
@@ -940,7 +998,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>4</v>
       </c>
@@ -972,7 +1030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>6</v>
       </c>
@@ -1004,7 +1062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>8</v>
       </c>
@@ -1036,7 +1094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1068,7 +1126,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>12</v>
       </c>
@@ -1100,7 +1158,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>14</v>
       </c>
@@ -1420,7 +1478,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1452,7 +1510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>6</v>
       </c>
@@ -1484,7 +1542,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>8</v>
       </c>
@@ -1516,7 +1574,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>10</v>
       </c>
@@ -1548,7 +1606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>12</v>
       </c>
@@ -1580,7 +1638,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>14</v>
       </c>
@@ -1932,20 +1990,1030 @@
         <v>44</v>
       </c>
     </row>
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>0.72</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45">
+        <v>0.85</v>
+      </c>
+      <c r="E45">
+        <v>1.5</v>
+      </c>
+      <c r="F45">
+        <v>30</v>
+      </c>
+      <c r="G45">
+        <v>29.66</v>
+      </c>
+      <c r="H45">
+        <v>1.06901</v>
+      </c>
+      <c r="I45">
+        <v>15</v>
+      </c>
+      <c r="J45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>0.72</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46">
+        <v>0.85</v>
+      </c>
+      <c r="E46">
+        <v>1.5</v>
+      </c>
+      <c r="F46">
+        <v>137</v>
+      </c>
+      <c r="G46">
+        <v>128.50399999999999</v>
+      </c>
+      <c r="H46">
+        <v>21.920010000000001</v>
+      </c>
+      <c r="I46">
+        <v>19</v>
+      </c>
+      <c r="J46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>0.72</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47">
+        <v>0.85</v>
+      </c>
+      <c r="E47">
+        <v>1.5</v>
+      </c>
+      <c r="F47">
+        <v>479</v>
+      </c>
+      <c r="G47">
+        <v>584.10199</v>
+      </c>
+      <c r="H47">
+        <v>236.76999000000001</v>
+      </c>
+      <c r="I47">
+        <v>23</v>
+      </c>
+      <c r="J47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>10</v>
+      </c>
+      <c r="B48">
+        <v>0.72</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48">
+        <v>0.85</v>
+      </c>
+      <c r="E48">
+        <v>1.5</v>
+      </c>
+      <c r="F48">
+        <v>1022</v>
+      </c>
+      <c r="G48">
+        <v>2495.2141200000001</v>
+      </c>
+      <c r="H48">
+        <v>1625.3827000000001</v>
+      </c>
+      <c r="I48">
+        <v>25</v>
+      </c>
+      <c r="J48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>12</v>
+      </c>
+      <c r="B49">
+        <v>0.72</v>
+      </c>
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49">
+        <v>0.85</v>
+      </c>
+      <c r="E49">
+        <v>1.5</v>
+      </c>
+      <c r="F49">
+        <v>2982</v>
+      </c>
+      <c r="G49">
+        <v>23179.560549999998</v>
+      </c>
+      <c r="H49">
+        <v>18000.060549999998</v>
+      </c>
+      <c r="I49">
+        <v>28</v>
+      </c>
+      <c r="J49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <v>0.66</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50">
+        <v>0.85</v>
+      </c>
+      <c r="E50">
+        <v>1.5</v>
+      </c>
+      <c r="F50">
+        <v>11</v>
+      </c>
+      <c r="G50">
+        <v>13.975009999999999</v>
+      </c>
+      <c r="H50">
+        <v>8.9010000000000006E-2</v>
+      </c>
+      <c r="I50">
+        <v>8</v>
+      </c>
+      <c r="J50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>0.66</v>
+      </c>
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>0.85</v>
+      </c>
+      <c r="E51">
+        <v>1.5</v>
+      </c>
+      <c r="F51">
+        <v>28</v>
+      </c>
+      <c r="G51">
+        <v>36.744999999999997</v>
+      </c>
+      <c r="H51">
+        <v>1.395</v>
+      </c>
+      <c r="I51">
+        <v>11</v>
+      </c>
+      <c r="J51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>8</v>
+      </c>
+      <c r="B52">
+        <v>0.66</v>
+      </c>
+      <c r="C52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52">
+        <v>0.85</v>
+      </c>
+      <c r="E52">
+        <v>1.5</v>
+      </c>
+      <c r="F52">
+        <v>72</v>
+      </c>
+      <c r="G52">
+        <v>100.98201</v>
+      </c>
+      <c r="H52">
+        <v>11.718</v>
+      </c>
+      <c r="I52">
+        <v>14</v>
+      </c>
+      <c r="J52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>10</v>
+      </c>
+      <c r="B53">
+        <v>0.66</v>
+      </c>
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53">
+        <v>0.85</v>
+      </c>
+      <c r="E53">
+        <v>1.5</v>
+      </c>
+      <c r="F53">
+        <v>86</v>
+      </c>
+      <c r="G53">
+        <v>161.239</v>
+      </c>
+      <c r="H53">
+        <v>13.284000000000001</v>
+      </c>
+      <c r="I53">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>12</v>
+      </c>
+      <c r="B54">
+        <v>0.66</v>
+      </c>
+      <c r="C54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54">
+        <v>0.85</v>
+      </c>
+      <c r="E54">
+        <v>1.5</v>
+      </c>
+      <c r="F54">
+        <v>205</v>
+      </c>
+      <c r="G54">
+        <v>590.17902000000004</v>
+      </c>
+      <c r="H54">
+        <v>55.496000000000002</v>
+      </c>
+      <c r="I54">
+        <v>19</v>
+      </c>
+      <c r="J54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>14</v>
+      </c>
+      <c r="B55">
+        <v>0.66</v>
+      </c>
+      <c r="C55" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55">
+        <v>0.85</v>
+      </c>
+      <c r="E55">
+        <v>1.5</v>
+      </c>
+      <c r="F55">
+        <v>405</v>
+      </c>
+      <c r="G55">
+        <v>1259.08204</v>
+      </c>
+      <c r="H55">
+        <v>220.23295999999999</v>
+      </c>
+      <c r="I55">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>16</v>
+      </c>
+      <c r="B56">
+        <v>0.66</v>
+      </c>
+      <c r="C56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56">
+        <v>0.85</v>
+      </c>
+      <c r="E56">
+        <v>1.5</v>
+      </c>
+      <c r="F56">
+        <v>288</v>
+      </c>
+      <c r="G56">
+        <v>1249.3260499999999</v>
+      </c>
+      <c r="H56">
+        <v>134.91999999999999</v>
+      </c>
+      <c r="I56">
+        <v>22</v>
+      </c>
+      <c r="J56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>18</v>
+      </c>
+      <c r="B57">
+        <v>0.66</v>
+      </c>
+      <c r="C57" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57">
+        <v>0.85</v>
+      </c>
+      <c r="E57">
+        <v>1.5</v>
+      </c>
+      <c r="F57">
+        <v>400</v>
+      </c>
+      <c r="G57">
+        <v>1824.5479800000001</v>
+      </c>
+      <c r="H57">
+        <v>308.22586999999999</v>
+      </c>
+      <c r="I57">
+        <v>25</v>
+      </c>
+      <c r="J57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>20</v>
+      </c>
+      <c r="B58">
+        <v>0.66</v>
+      </c>
+      <c r="C58" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58">
+        <v>0.85</v>
+      </c>
+      <c r="E58">
+        <v>1.5</v>
+      </c>
+      <c r="F58">
+        <v>392</v>
+      </c>
+      <c r="G58">
+        <v>2246.1950700000002</v>
+      </c>
+      <c r="H58">
+        <v>396.08091000000002</v>
+      </c>
+      <c r="I58">
+        <v>27</v>
+      </c>
+      <c r="J58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>22</v>
+      </c>
+      <c r="B59">
+        <v>0.66</v>
+      </c>
+      <c r="C59" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59">
+        <v>0.85</v>
+      </c>
+      <c r="E59">
+        <v>1.5</v>
+      </c>
+      <c r="F59">
+        <v>823</v>
+      </c>
+      <c r="G59">
+        <v>3912.01001</v>
+      </c>
+      <c r="H59">
+        <v>1293.7957799999999</v>
+      </c>
+      <c r="I59">
+        <v>30</v>
+      </c>
+      <c r="J59" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>24</v>
+      </c>
+      <c r="B60">
+        <v>0.66</v>
+      </c>
+      <c r="C60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60">
+        <v>0.85</v>
+      </c>
+      <c r="E60">
+        <v>1.5</v>
+      </c>
+      <c r="F60">
+        <v>824</v>
+      </c>
+      <c r="G60">
+        <v>4189.1757900000002</v>
+      </c>
+      <c r="H60">
+        <v>1419.7919999999999</v>
+      </c>
+      <c r="I60">
+        <v>32</v>
+      </c>
+      <c r="J60" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>26</v>
+      </c>
+      <c r="B61">
+        <v>0.66</v>
+      </c>
+      <c r="C61" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61">
+        <v>0.85</v>
+      </c>
+      <c r="E61">
+        <v>1.5</v>
+      </c>
+      <c r="F61">
+        <v>684</v>
+      </c>
+      <c r="G61">
+        <v>3995.1210999999998</v>
+      </c>
+      <c r="H61">
+        <v>1074.2308399999999</v>
+      </c>
+      <c r="I61">
+        <v>33</v>
+      </c>
+      <c r="J61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>28</v>
+      </c>
+      <c r="B62">
+        <v>0.66</v>
+      </c>
+      <c r="C62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62">
+        <v>0.85</v>
+      </c>
+      <c r="E62">
+        <v>1.5</v>
+      </c>
+      <c r="F62">
+        <v>999</v>
+      </c>
+      <c r="G62">
+        <v>6841.9072299999998</v>
+      </c>
+      <c r="H62">
+        <v>2421.9394600000001</v>
+      </c>
+      <c r="I62">
+        <v>35</v>
+      </c>
+      <c r="J62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>30</v>
+      </c>
+      <c r="B63">
+        <v>0.66</v>
+      </c>
+      <c r="C63" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63">
+        <v>0.85</v>
+      </c>
+      <c r="E63">
+        <v>1.5</v>
+      </c>
+      <c r="F63">
+        <v>573</v>
+      </c>
+      <c r="G63">
+        <v>4214.5439500000002</v>
+      </c>
+      <c r="H63">
+        <v>815.30005000000006</v>
+      </c>
+      <c r="I63">
+        <v>37</v>
+      </c>
+      <c r="J63" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J44" xr:uid="{2B80D8EF-AC75-4E26-8598-DC4A95BB64B6}">
+  <autoFilter ref="A1:J63" xr:uid="{17D15EE4-097B-4CC9-8E67-1B0D31A07F28}">
     <filterColumn colId="1">
       <filters>
-        <filter val="0.72"/>
+        <filter val="0.66"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="ML"/>
+        <filter val="MM"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21A4E07-F27E-4483-ABC1-91FF1EEF4FC5}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0.72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>0.85</v>
+      </c>
+      <c r="E2">
+        <v>1.5</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>29.66</v>
+      </c>
+      <c r="H2">
+        <v>1.06901</v>
+      </c>
+      <c r="I2">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0.72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>0.85</v>
+      </c>
+      <c r="E3">
+        <v>1.5</v>
+      </c>
+      <c r="F3">
+        <v>137</v>
+      </c>
+      <c r="G3">
+        <v>128.50399999999999</v>
+      </c>
+      <c r="H3">
+        <v>21.920010000000001</v>
+      </c>
+      <c r="I3">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>0.85</v>
+      </c>
+      <c r="E4">
+        <v>1.5</v>
+      </c>
+      <c r="F4">
+        <v>479</v>
+      </c>
+      <c r="G4">
+        <v>584.10199</v>
+      </c>
+      <c r="H4">
+        <v>236.76999000000001</v>
+      </c>
+      <c r="I4">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>0.85</v>
+      </c>
+      <c r="E5">
+        <v>1.5</v>
+      </c>
+      <c r="F5">
+        <v>1022</v>
+      </c>
+      <c r="G5">
+        <v>2495.2141200000001</v>
+      </c>
+      <c r="H5">
+        <v>1625.3827000000001</v>
+      </c>
+      <c r="I5">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0.72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>0.85</v>
+      </c>
+      <c r="E6">
+        <v>1.5</v>
+      </c>
+      <c r="F6">
+        <v>2982</v>
+      </c>
+      <c r="G6">
+        <v>23179.560549999998</v>
+      </c>
+      <c r="H6">
+        <v>18000.060549999998</v>
+      </c>
+      <c r="I6">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0.66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>0.85</v>
+      </c>
+      <c r="E7">
+        <v>1.5</v>
+      </c>
+      <c r="F7">
+        <v>17</v>
+      </c>
+      <c r="G7">
+        <v>16.651</v>
+      </c>
+      <c r="H7">
+        <v>0.129</v>
+      </c>
+      <c r="I7">
+        <v>9</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>0.85</v>
+      </c>
+      <c r="E8">
+        <v>1.5</v>
+      </c>
+      <c r="F8">
+        <v>81</v>
+      </c>
+      <c r="G8">
+        <v>63.863</v>
+      </c>
+      <c r="H8">
+        <v>5.4740000000000002</v>
+      </c>
+      <c r="I8">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>0.85</v>
+      </c>
+      <c r="E9">
+        <v>1.5</v>
+      </c>
+      <c r="F9">
+        <v>214</v>
+      </c>
+      <c r="G9">
+        <v>222.30201</v>
+      </c>
+      <c r="H9">
+        <v>47.819000000000003</v>
+      </c>
+      <c r="I9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>0.85</v>
+      </c>
+      <c r="E10">
+        <v>1.5</v>
+      </c>
+      <c r="F10">
+        <v>580</v>
+      </c>
+      <c r="G10">
+        <v>983.02503000000002</v>
+      </c>
+      <c r="H10">
+        <v>479.60406999999998</v>
+      </c>
+      <c r="I10">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0.66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0.85</v>
+      </c>
+      <c r="E11">
+        <v>1.5</v>
+      </c>
+      <c r="F11">
+        <v>1370</v>
+      </c>
+      <c r="G11">
+        <v>5023.22217</v>
+      </c>
+      <c r="H11">
+        <v>3749.3247099999999</v>
+      </c>
+      <c r="I11">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0.66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>0.85</v>
+      </c>
+      <c r="E12">
+        <v>1.5</v>
+      </c>
+      <c r="F12">
+        <v>2097</v>
+      </c>
+      <c r="G12">
+        <v>11624.14063</v>
+      </c>
+      <c r="H12">
+        <v>9330.7734400000008</v>
+      </c>
+      <c r="I12">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>